--- a/PythonScripts/xlsx/TrendingAssetsData.xlsx
+++ b/PythonScripts/xlsx/TrendingAssetsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cvp14567\Documents\MP\OptionsReplay\PythonScripts\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3523990A-7919-4A9E-8754-92058BE6D4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6D8108-DC65-4575-BC09-570C425BD90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ECFE371A-8543-48F3-8B0F-A1689086D51F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ECFE371A-8543-48F3-8B0F-A1689086D51F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -188,12 +188,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -208,11 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E11CADF-0AC0-4730-B38A-C13845C33020}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,41 +624,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>45515</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -860,10 +867,10 @@
       <c r="Q9" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" t="s">
         <v>28</v>
       </c>
       <c r="T9" t="s">
@@ -880,10 +887,10 @@
       <c r="M10" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" t="s">
         <v>28</v>
       </c>
       <c r="T10" t="s">
@@ -906,10 +913,10 @@
       <c r="N11" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" t="s">
         <v>28</v>
       </c>
       <c r="T11" t="s">
@@ -932,10 +939,10 @@
       <c r="Q12" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="S12" t="s">
         <v>28</v>
       </c>
       <c r="T12" t="s">
@@ -976,10 +983,10 @@
       <c r="Q13" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" t="s">
         <v>33</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="S13" t="s">
         <v>38</v>
       </c>
       <c r="T13" t="s">
@@ -1029,10 +1036,10 @@
       <c r="P14" t="s">
         <v>17</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" t="s">
         <v>38</v>
       </c>
       <c r="T14" t="s">
@@ -1064,10 +1071,10 @@
       <c r="Q15" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" t="s">
         <v>38</v>
       </c>
       <c r="T15" t="s">
@@ -1102,10 +1109,10 @@
       <c r="P16" t="s">
         <v>17</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="R16" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S16" t="s">
         <v>38</v>
       </c>
       <c r="T16" t="s">
@@ -1138,10 +1145,10 @@
         <v>16</v>
       </c>
       <c r="P17" s="2"/>
-      <c r="R17" s="3" t="s">
+      <c r="R17" t="s">
         <v>33</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="S17" t="s">
         <v>38</v>
       </c>
       <c r="T17" t="s">
@@ -1164,10 +1171,10 @@
       <c r="P18" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" t="s">
         <v>34</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="S18" t="s">
         <v>39</v>
       </c>
       <c r="T18" t="s">
@@ -1205,10 +1212,10 @@
       <c r="O19" t="s">
         <v>17</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" t="s">
         <v>34</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="S19" t="s">
         <v>39</v>
       </c>
       <c r="T19" t="s">
@@ -1231,10 +1238,10 @@
       <c r="P20" t="s">
         <v>17</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" t="s">
         <v>34</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S20" t="s">
         <v>39</v>
       </c>
       <c r="T20" t="s">
@@ -1257,10 +1264,10 @@
       <c r="Q21" t="s">
         <v>17</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="S21" t="s">
         <v>39</v>
       </c>
       <c r="T21" t="s">
@@ -1286,10 +1293,10 @@
       <c r="P22" t="s">
         <v>16</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="S22" t="s">
         <v>40</v>
       </c>
       <c r="T22" t="s">
@@ -1306,10 +1313,10 @@
       <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" t="s">
         <v>35</v>
       </c>
-      <c r="S23" s="3" t="s">
+      <c r="S23" t="s">
         <v>40</v>
       </c>
       <c r="T23" t="s">
@@ -1332,10 +1339,10 @@
       <c r="Q24" t="s">
         <v>17</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" t="s">
         <v>35</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="S24" t="s">
         <v>40</v>
       </c>
       <c r="T24" t="s">
@@ -1370,10 +1377,10 @@
       <c r="P25" t="s">
         <v>16</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" t="s">
         <v>35</v>
       </c>
-      <c r="S25" s="3" t="s">
+      <c r="S25" t="s">
         <v>40</v>
       </c>
       <c r="T25" t="s">
@@ -1399,10 +1406,10 @@
       <c r="P26" t="s">
         <v>16</v>
       </c>
-      <c r="R26" s="3" t="s">
+      <c r="R26" t="s">
         <v>35</v>
       </c>
-      <c r="S26" s="3" t="s">
+      <c r="S26" t="s">
         <v>40</v>
       </c>
       <c r="T26" t="s">
@@ -1419,7 +1426,7 @@
       <c r="J27" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" t="s">
         <v>16</v>
       </c>
       <c r="P27" t="s">
@@ -1428,7 +1435,7 @@
       <c r="R27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="S27" t="s">
         <v>41</v>
       </c>
       <c r="T27" t="s">
@@ -1444,7 +1451,7 @@
         <v>17</v>
       </c>
       <c r="L28" s="2"/>
-      <c r="M28" s="3" t="s">
+      <c r="M28" t="s">
         <v>16</v>
       </c>
       <c r="N28" t="s">
@@ -1456,7 +1463,7 @@
       <c r="R28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="S28" t="s">
         <v>41</v>
       </c>
       <c r="T28" t="s">
@@ -1485,7 +1492,7 @@
       <c r="R29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29" t="s">
         <v>41</v>
       </c>
       <c r="T29" t="s">
@@ -1508,7 +1515,7 @@
       <c r="R30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S30" s="3" t="s">
+      <c r="S30" t="s">
         <v>41</v>
       </c>
       <c r="T30" t="s">
@@ -1540,7 +1547,7 @@
       <c r="R31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="S31" t="s">
         <v>42</v>
       </c>
       <c r="T31" t="s">
@@ -1576,7 +1583,7 @@
       <c r="R32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S32" s="3" t="s">
+      <c r="S32" t="s">
         <v>42</v>
       </c>
       <c r="T32" t="s">
@@ -1608,15 +1615,12 @@
       <c r="R33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="S33" t="s">
         <v>42</v>
       </c>
       <c r="T33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="K34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/PythonScripts/xlsx/TrendingAssetsData.xlsx
+++ b/PythonScripts/xlsx/TrendingAssetsData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cvp14567\Documents\MP\OptionsReplay\PythonScripts\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6D8108-DC65-4575-BC09-570C425BD90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0595F79-7C79-4D1C-8ECC-FDEF97CA7645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{ECFE371A-8543-48F3-8B0F-A1689086D51F}"/>
   </bookViews>
@@ -214,12 +214,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +561,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,41 +628,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>45515</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="4" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1119,39 +1123,39 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>45410</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="R17" t="s">
+      <c r="B17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="R17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T17" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1432,7 +1436,7 @@
       <c r="P27" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="R27" t="s">
         <v>36</v>
       </c>
       <c r="S27" t="s">
@@ -1443,30 +1447,30 @@
       </c>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>45333</v>
       </c>
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" t="s">
-        <v>16</v>
-      </c>
-      <c r="N28" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>16</v>
-      </c>
-      <c r="R28" s="2" t="s">
+      <c r="C28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="M28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T28" t="s">
+      <c r="T28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1489,7 +1493,7 @@
       <c r="P29" t="s">
         <v>16</v>
       </c>
-      <c r="R29" s="2" t="s">
+      <c r="R29" t="s">
         <v>36</v>
       </c>
       <c r="S29" t="s">
@@ -1512,7 +1516,7 @@
       <c r="Q30" t="s">
         <v>17</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="R30" t="s">
         <v>36</v>
       </c>
       <c r="S30" t="s">
@@ -1544,7 +1548,7 @@
       <c r="Q31" t="s">
         <v>16</v>
       </c>
-      <c r="R31" s="2" t="s">
+      <c r="R31" t="s">
         <v>37</v>
       </c>
       <c r="S31" t="s">
@@ -1580,7 +1584,7 @@
       <c r="Q32" t="s">
         <v>17</v>
       </c>
-      <c r="R32" s="2" t="s">
+      <c r="R32" t="s">
         <v>37</v>
       </c>
       <c r="S32" t="s">
@@ -1612,7 +1616,7 @@
       <c r="Q33" t="s">
         <v>17</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="R33" t="s">
         <v>37</v>
       </c>
       <c r="S33" t="s">
